--- a/rehab/ValueSet-CancellationTypes.xlsx
+++ b/rehab/ValueSet-CancellationTypes.xlsx
@@ -8,13 +8,12 @@
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Include from CareSocialCodes" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from Tempcodes" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>Property</t>
   </si>
@@ -31,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -58,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-28T10:05:19+02:00</t>
+    <t>2024-06-14T10:48:54+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -70,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Kommunernes Landsforening (http://kl.dk)</t>
   </si>
   <si>
     <t>Description</t>
@@ -118,6 +117,9 @@
     <t>82e99421-31da-4915-96ed-168ccfa1d20c</t>
   </si>
   <si>
+    <t>ef491570-7884-4acd-bcf7-43d6b2c64762</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
@@ -125,12 +127,6 @@
   </si>
   <si>
     <t>http://fhir.kl.dk/term/CodeSystem/CareSocialCodes</t>
-  </si>
-  <si>
-    <t>ef491570-7884-4acd-bcf7-43d6b2c64762</t>
-  </si>
-  <si>
-    <t>http://fhir.kl.dk/rehab/CodeSystem/Tempcodes</t>
   </si>
 </sst>
 </file>
@@ -389,7 +385,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -459,63 +455,22 @@
       <c r="A10" t="s" s="2">
         <v>34</v>
       </c>
-      <c r="B10" t="s" s="2">
-        <v>34</v>
-      </c>
+      <c r="B10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
         <v>35</v>
       </c>
       <c r="B11" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
         <v>36</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
+      <c r="B12" t="s" s="2">
         <v>37</v>
-      </c>
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/rehab/ValueSet-CancellationTypes.xlsx
+++ b/rehab/ValueSet-CancellationTypes.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-14T10:48:54+02:00</t>
+    <t>2024-06-19T13:11:07+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/rehab/ValueSet-CancellationTypes.xlsx
+++ b/rehab/ValueSet-CancellationTypes.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T13:11:07+02:00</t>
+    <t>2024-06-21T15:30:32+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/rehab/ValueSet-CancellationTypes.xlsx
+++ b/rehab/ValueSet-CancellationTypes.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.1</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T15:30:32+02:00</t>
+    <t>2024-06-19T13:11:07+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/rehab/ValueSet-CancellationTypes.xlsx
+++ b/rehab/ValueSet-CancellationTypes.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T13:11:07+02:00</t>
+    <t>2024-06-24T12:49:29+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/rehab/ValueSet-CancellationTypes.xlsx
+++ b/rehab/ValueSet-CancellationTypes.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.1</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-24T12:49:29+02:00</t>
+    <t>2024-06-19T13:11:07+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/rehab/ValueSet-CancellationTypes.xlsx
+++ b/rehab/ValueSet-CancellationTypes.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T13:11:07+02:00</t>
+    <t>2024-07-01T23:09:09+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,6 +72,12 @@
     <t>Kommunernes Landsforening (http://kl.dk)</t>
   </si>
   <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Description</t>
   </si>
   <si>
@@ -118,9 +124,6 @@
   </si>
   <si>
     <t>ef491570-7884-4acd-bcf7-43d6b2c64762</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>System URI</t>
@@ -260,7 +263,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -362,20 +365,28 @@
       <c r="A12" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s" s="2">
         <v>24</v>
+      </c>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -397,80 +408,80 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/rehab/ValueSet-CancellationTypes.xlsx
+++ b/rehab/ValueSet-CancellationTypes.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from CareSocialCodes" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.1</t>
+    <t>2.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T23:09:09+02:00</t>
+    <t>2024-10-31T15:40:44+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
